--- a/fourth_i_guess/Book1.xlsx
+++ b/fourth_i_guess/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enfxm\Desktop\Python Testing\Test Report Template\Test-Report-Generator\fourth_i_guess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C98EA82-96DF-4DA3-8C1A-1AC78B97006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF36510-0CE2-4F2E-9074-BB56A297850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2567F2-0652-4293-9B60-27B13E5575ED}"/>
+    <workbookView xWindow="-27450" yWindow="1635" windowWidth="21600" windowHeight="11295" xr2:uid="{FF2567F2-0652-4293-9B60-27B13E5575ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -88,18 +88,6 @@
     <t>Input Voltages</t>
   </si>
   <si>
-    <t>spec_low</t>
-  </si>
-  <si>
-    <t>nom_low</t>
-  </si>
-  <si>
-    <t>nom_high</t>
-  </si>
-  <si>
-    <t>spec_high</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -128,6 +116,18 @@
   </si>
   <si>
     <t>Insert Sheet rows if needed….</t>
+  </si>
+  <si>
+    <t>Specified Low</t>
+  </si>
+  <si>
+    <t>Nominal Low</t>
+  </si>
+  <si>
+    <t>Nominal High</t>
+  </si>
+  <si>
+    <t>Specified High</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="45720" rIns="0" bIns="45720" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -684,7 +684,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="45720" rIns="0" bIns="45720" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -765,7 +765,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="45720" rIns="0" bIns="45720" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="0" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1909,13 +1909,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1976,74 +1976,74 @@
         <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="20" t="b">
@@ -2153,10 +2153,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC889CE6-6E27-4263-8DEF-8AB7BC5CFC02}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,9 +2164,10 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -2220,20 +2221,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="b">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f>F$7+G7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f>F$7+G11</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
